--- a/data-raw/yuba_recapture.xlsx
+++ b/data-raw/yuba_recapture.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="EDI_Query__Recaptures"/>
   </sheets>
   <definedNames>
-    <definedName name="EDI_Query__Recaptures">'EDI_Query__Recaptures'!$A$1:$R$60</definedName>
+    <definedName name="EDI_Query__Recaptures">'EDI_Query__Recaptures'!$A$1:$U$60</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -398,50 +398,65 @@
       </c>
       <c r="I1" s="0" t="inlineStr">
         <is>
+          <t>mort</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
           <t>forkLength</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>totalLength</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>actualCountID</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
         <is>
           <t>visitTime</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="O1" s="0" t="inlineStr">
         <is>
           <t>visitType</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="P1" s="0" t="inlineStr">
         <is>
           <t>siteName</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="Q1" s="0" t="inlineStr">
         <is>
           <t>subSiteName</t>
         </is>
       </c>
-      <c r="O1" s="0" t="inlineStr">
+      <c r="R1" s="0" t="inlineStr">
         <is>
           <t>markType</t>
         </is>
       </c>
-      <c r="P1" s="0" t="inlineStr">
+      <c r="S1" s="0" t="inlineStr">
         <is>
           <t>markColor</t>
         </is>
       </c>
-      <c r="Q1" s="0" t="inlineStr">
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>markPosition</t>
         </is>
       </c>
-      <c r="R1" s="0" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>markCode</t>
         </is>
@@ -475,38 +490,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J2" s="0">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L2" s="0">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
         <v>44946.3756597222</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M2" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N2" s="0" t="inlineStr">
+      <c r="O2" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P2" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q2" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O2" s="0" t="inlineStr">
+      <c r="R2" s="0" t="inlineStr">
         <is>
           <t>Pigment / dye</t>
         </is>
       </c>
-      <c r="P2" s="0" t="inlineStr">
+      <c r="S2" s="0" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="Q2" s="0" t="inlineStr">
+      <c r="T2" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
         </is>
@@ -540,38 +563,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J3" s="0">
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L3" s="0">
         <v>15</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="0">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
         <v>44952.3750925926</v>
       </c>
-      <c r="L3" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M3" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="O3" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P3" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q3" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O3" s="0" t="inlineStr">
+      <c r="R3" s="0" t="inlineStr">
         <is>
           <t>Pigment / dye</t>
         </is>
       </c>
-      <c r="P3" s="0" t="inlineStr">
+      <c r="S3" s="0" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="Q3" s="0" t="inlineStr">
+      <c r="T3" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
         </is>
@@ -605,38 +636,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J4" s="0">
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L4" s="0">
         <v>8</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="0">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
         <v>44952.3790162037</v>
       </c>
-      <c r="L4" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M4" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N4" s="0" t="inlineStr">
+      <c r="O4" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P4" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q4" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O4" s="0" t="inlineStr">
+      <c r="R4" s="0" t="inlineStr">
         <is>
           <t>Pigment / dye</t>
         </is>
       </c>
-      <c r="P4" s="0" t="inlineStr">
+      <c r="S4" s="0" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="Q4" s="0" t="inlineStr">
+      <c r="T4" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
         </is>
@@ -670,38 +709,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J5" s="0">
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L5" s="0">
         <v>15</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="0">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
         <v>44959.3858333333</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N5" s="0" t="inlineStr">
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P5" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q5" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O5" s="0" t="inlineStr">
+      <c r="R5" s="0" t="inlineStr">
         <is>
           <t>Pigment / dye</t>
         </is>
       </c>
-      <c r="P5" s="0" t="inlineStr">
+      <c r="S5" s="0" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="Q5" s="0" t="inlineStr">
+      <c r="T5" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
         </is>
@@ -735,38 +782,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J6" s="0">
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L6" s="0">
         <v>10</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="0">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
         <v>44959.3890740741</v>
       </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N6" s="0" t="inlineStr">
+      <c r="O6" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P6" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q6" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O6" s="0" t="inlineStr">
+      <c r="R6" s="0" t="inlineStr">
         <is>
           <t>Pigment / dye</t>
         </is>
       </c>
-      <c r="P6" s="0" t="inlineStr">
+      <c r="S6" s="0" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="Q6" s="0" t="inlineStr">
+      <c r="T6" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
         </is>
@@ -800,38 +855,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J7" s="0">
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L7" s="0">
         <v>15</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="0">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
         <v>44959.3962384259</v>
       </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
+      <c r="O7" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P7" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O7" s="0" t="inlineStr">
+      <c r="R7" s="0" t="inlineStr">
         <is>
           <t>Pigment / dye</t>
         </is>
       </c>
-      <c r="P7" s="0" t="inlineStr">
+      <c r="S7" s="0" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="Q7" s="0" t="inlineStr">
+      <c r="T7" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
         </is>
@@ -865,38 +928,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J8" s="0">
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L8" s="0">
         <v>3</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="0">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
         <v>44960.3962037037</v>
       </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
+      <c r="O8" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P8" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q8" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O8" s="0" t="inlineStr">
+      <c r="R8" s="0" t="inlineStr">
         <is>
           <t>Pigment / dye</t>
         </is>
       </c>
-      <c r="P8" s="0" t="inlineStr">
+      <c r="S8" s="0" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="Q8" s="0" t="inlineStr">
+      <c r="T8" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
         </is>
@@ -930,38 +1001,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J9" s="0">
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L9" s="0">
         <v>18</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="0">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
         <v>44960.4029166667</v>
       </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
+      <c r="O9" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P9" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q9" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O9" s="0" t="inlineStr">
+      <c r="R9" s="0" t="inlineStr">
         <is>
           <t>Pigment / dye</t>
         </is>
       </c>
-      <c r="P9" s="0" t="inlineStr">
+      <c r="S9" s="0" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="Q9" s="0" t="inlineStr">
+      <c r="T9" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
         </is>
@@ -995,38 +1074,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J10" s="0">
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L10" s="0">
         <v>11</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="0">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
         <v>44967.3854166667</v>
       </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
+      <c r="O10" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P10" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q10" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O10" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P10" s="0" t="inlineStr">
+      <c r="R10" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S10" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q10" s="0" t="inlineStr">
+      <c r="T10" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1060,38 +1147,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J11" s="0">
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L11" s="0">
         <v>2</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="0">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
         <v>44967.3928703704</v>
       </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
+      <c r="O11" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P11" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q11" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O11" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P11" s="0" t="inlineStr">
+      <c r="R11" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S11" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q11" s="0" t="inlineStr">
+      <c r="T11" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1125,38 +1220,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J12" s="0">
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L12" s="0">
         <v>10</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="0">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
         <v>44967.375474537</v>
       </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
+      <c r="O12" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P12" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q12" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O12" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P12" s="0" t="inlineStr">
+      <c r="R12" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S12" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q12" s="0" t="inlineStr">
+      <c r="T12" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1190,38 +1293,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J13" s="0">
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L13" s="0">
         <v>2</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="0">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
         <v>44974.4481828704</v>
       </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
+      <c r="O13" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P13" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q13" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O13" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P13" s="0" t="inlineStr">
+      <c r="R13" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S13" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q13" s="0" t="inlineStr">
+      <c r="T13" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1255,38 +1366,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J14" s="0">
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L14" s="0">
         <v>37</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="0">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
         <v>44981.4778009259</v>
       </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
+      <c r="O14" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P14" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q14" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O14" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P14" s="0" t="inlineStr">
+      <c r="R14" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S14" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q14" s="0" t="inlineStr">
+      <c r="T14" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1320,38 +1439,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J15" s="0">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L15" s="0">
+        <v>1</v>
+      </c>
+      <c r="M15" s="0">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
         <v>44981.4778009259</v>
       </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
+      <c r="O15" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P15" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q15" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O15" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P15" s="0" t="inlineStr">
+      <c r="R15" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S15" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q15" s="0" t="inlineStr">
+      <c r="T15" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1385,38 +1512,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J16" s="0">
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L16" s="0">
         <v>3</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M16" s="0">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
         <v>44982.4078125</v>
       </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M16" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N16" s="0" t="inlineStr">
+      <c r="O16" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P16" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q16" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O16" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P16" s="0" t="inlineStr">
+      <c r="R16" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S16" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q16" s="0" t="inlineStr">
+      <c r="T16" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1450,38 +1585,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J17" s="0">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L17" s="0">
+        <v>1</v>
+      </c>
+      <c r="M17" s="0">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
         <v>44982.4078125</v>
       </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N17" s="0" t="inlineStr">
+      <c r="O17" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P17" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q17" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O17" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P17" s="0" t="inlineStr">
+      <c r="R17" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S17" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q17" s="0" t="inlineStr">
+      <c r="T17" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1515,38 +1658,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J18" s="0">
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L18" s="0">
         <v>8</v>
       </c>
-      <c r="K18" s="1">
+      <c r="M18" s="0">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
         <v>44981.4520717593</v>
       </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N18" s="0" t="inlineStr">
+      <c r="O18" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P18" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q18" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O18" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P18" s="0" t="inlineStr">
+      <c r="R18" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S18" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q18" s="0" t="inlineStr">
+      <c r="T18" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1580,38 +1731,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J19" s="0">
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L19" s="0">
         <v>2</v>
       </c>
-      <c r="K19" s="1">
+      <c r="M19" s="0">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
         <v>44988.4378935185</v>
       </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
+      <c r="O19" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P19" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q19" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O19" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P19" s="0" t="inlineStr">
+      <c r="R19" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S19" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q19" s="0" t="inlineStr">
+      <c r="T19" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1645,38 +1804,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J20" s="0">
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L20" s="0">
         <v>14</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="0">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
         <v>44981.4584953704</v>
       </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N20" s="0" t="inlineStr">
+      <c r="O20" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P20" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q20" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O20" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P20" s="0" t="inlineStr">
+      <c r="R20" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S20" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q20" s="0" t="inlineStr">
+      <c r="T20" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1710,38 +1877,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J21" s="0">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L21" s="0">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
         <v>44981.4584953704</v>
       </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N21" s="0" t="inlineStr">
+      <c r="O21" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P21" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q21" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O21" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P21" s="0" t="inlineStr">
+      <c r="R21" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S21" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q21" s="0" t="inlineStr">
+      <c r="T21" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1775,38 +1950,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J22" s="0">
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L22" s="0">
         <v>2</v>
       </c>
-      <c r="K22" s="1">
+      <c r="M22" s="0">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
         <v>44982.4067013889</v>
       </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N22" s="0" t="inlineStr">
+      <c r="O22" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P22" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q22" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O22" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P22" s="0" t="inlineStr">
+      <c r="R22" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S22" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q22" s="0" t="inlineStr">
+      <c r="T22" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1840,38 +2023,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J23" s="0">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L23" s="0">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
         <v>44982.4067013889</v>
       </c>
-      <c r="L23" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M23" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N23" s="0" t="inlineStr">
+      <c r="O23" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P23" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q23" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O23" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P23" s="0" t="inlineStr">
+      <c r="R23" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S23" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q23" s="0" t="inlineStr">
+      <c r="T23" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1905,38 +2096,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J24" s="0">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L24" s="0">
+        <v>1</v>
+      </c>
+      <c r="M24" s="0">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
         <v>44984.427337963</v>
       </c>
-      <c r="L24" s="0" t="inlineStr">
+      <c r="O24" s="0" t="inlineStr">
         <is>
           <t>Unplanned restart</t>
         </is>
       </c>
-      <c r="M24" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N24" s="0" t="inlineStr">
+      <c r="P24" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q24" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O24" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P24" s="0" t="inlineStr">
+      <c r="R24" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S24" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q24" s="0" t="inlineStr">
+      <c r="T24" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -1970,38 +2169,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J25" s="0">
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L25" s="0">
         <v>14</v>
       </c>
-      <c r="K25" s="1">
+      <c r="M25" s="0">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
         <v>44988.4167361111</v>
       </c>
-      <c r="L25" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M25" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N25" s="0" t="inlineStr">
+      <c r="O25" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P25" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q25" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O25" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P25" s="0" t="inlineStr">
+      <c r="R25" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S25" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q25" s="0" t="inlineStr">
+      <c r="T25" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2035,38 +2242,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J26" s="0">
-        <v>7</v>
-      </c>
-      <c r="K26" s="1">
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L26" s="0">
+        <v>7</v>
+      </c>
+      <c r="M26" s="0">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
         <v>44988.4238078704</v>
       </c>
-      <c r="L26" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M26" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N26" s="0" t="inlineStr">
+      <c r="O26" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P26" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q26" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O26" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P26" s="0" t="inlineStr">
+      <c r="R26" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S26" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q26" s="0" t="inlineStr">
+      <c r="T26" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2100,38 +2315,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J27" s="0">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L27" s="0">
+        <v>1</v>
+      </c>
+      <c r="M27" s="0">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
         <v>44995.389537037</v>
       </c>
-      <c r="L27" s="0" t="inlineStr">
+      <c r="O27" s="0" t="inlineStr">
         <is>
           <t>End trapping</t>
         </is>
       </c>
-      <c r="M27" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N27" s="0" t="inlineStr">
+      <c r="P27" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q27" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O27" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P27" s="0" t="inlineStr">
+      <c r="R27" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S27" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q27" s="0" t="inlineStr">
+      <c r="T27" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2165,38 +2388,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J28" s="0">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L28" s="0">
+        <v>1</v>
+      </c>
+      <c r="M28" s="0">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
         <v>44994.4102777778</v>
       </c>
-      <c r="L28" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M28" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N28" s="0" t="inlineStr">
+      <c r="O28" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P28" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q28" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O28" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P28" s="0" t="inlineStr">
+      <c r="R28" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S28" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q28" s="0" t="inlineStr">
+      <c r="T28" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2230,38 +2461,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J29" s="0">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L29" s="0">
+        <v>1</v>
+      </c>
+      <c r="M29" s="0">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
         <v>44995.4033564815</v>
       </c>
-      <c r="L29" s="0" t="inlineStr">
+      <c r="O29" s="0" t="inlineStr">
         <is>
           <t>End trapping</t>
         </is>
       </c>
-      <c r="M29" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N29" s="0" t="inlineStr">
+      <c r="P29" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q29" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O29" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P29" s="0" t="inlineStr">
+      <c r="R29" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S29" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q29" s="0" t="inlineStr">
+      <c r="T29" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2295,38 +2534,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J30" s="0">
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L30" s="0">
         <v>3</v>
       </c>
-      <c r="K30" s="1">
+      <c r="M30" s="0">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
         <v>45009.3821412037</v>
       </c>
-      <c r="L30" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M30" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N30" s="0" t="inlineStr">
+      <c r="O30" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P30" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q30" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O30" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P30" s="0" t="inlineStr">
+      <c r="R30" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S30" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q30" s="0" t="inlineStr">
+      <c r="T30" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2360,38 +2607,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J31" s="0">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1">
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L31" s="0">
+        <v>1</v>
+      </c>
+      <c r="M31" s="0">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
         <v>45009.3686458333</v>
       </c>
-      <c r="L31" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M31" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N31" s="0" t="inlineStr">
+      <c r="O31" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P31" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q31" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O31" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P31" s="0" t="inlineStr">
+      <c r="R31" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S31" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q31" s="0" t="inlineStr">
+      <c r="T31" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2425,38 +2680,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J32" s="0">
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L32" s="0">
         <v>5</v>
       </c>
-      <c r="K32" s="1">
+      <c r="M32" s="0">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
         <v>45016.3895717593</v>
       </c>
-      <c r="L32" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M32" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N32" s="0" t="inlineStr">
+      <c r="O32" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P32" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q32" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O32" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P32" s="0" t="inlineStr">
+      <c r="R32" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S32" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q32" s="0" t="inlineStr">
+      <c r="T32" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2490,38 +2753,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J33" s="0">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L33" s="0">
+        <v>1</v>
+      </c>
+      <c r="M33" s="0">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
         <v>45020.3684722222</v>
       </c>
-      <c r="L33" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M33" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N33" s="0" t="inlineStr">
+      <c r="O33" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P33" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q33" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O33" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P33" s="0" t="inlineStr">
+      <c r="R33" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S33" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q33" s="0" t="inlineStr">
+      <c r="T33" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2555,38 +2826,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J34" s="0">
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L34" s="0">
         <v>4</v>
       </c>
-      <c r="K34" s="1">
+      <c r="M34" s="0">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1">
         <v>45023.3824537037</v>
       </c>
-      <c r="L34" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M34" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N34" s="0" t="inlineStr">
+      <c r="O34" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P34" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q34" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O34" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P34" s="0" t="inlineStr">
+      <c r="R34" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S34" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q34" s="0" t="inlineStr">
+      <c r="T34" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2620,38 +2899,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J35" s="0">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1">
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L35" s="0">
+        <v>1</v>
+      </c>
+      <c r="M35" s="0">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
         <v>45027.4111921296</v>
       </c>
-      <c r="L35" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M35" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N35" s="0" t="inlineStr">
+      <c r="O35" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P35" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q35" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O35" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P35" s="0" t="inlineStr">
+      <c r="R35" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S35" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q35" s="0" t="inlineStr">
+      <c r="T35" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2685,38 +2972,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J36" s="0">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1">
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L36" s="0">
+        <v>1</v>
+      </c>
+      <c r="M36" s="0">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
         <v>45027.4111921296</v>
       </c>
-      <c r="L36" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M36" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N36" s="0" t="inlineStr">
+      <c r="O36" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P36" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q36" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O36" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P36" s="0" t="inlineStr">
+      <c r="R36" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S36" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q36" s="0" t="inlineStr">
+      <c r="T36" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2750,38 +3045,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J37" s="0">
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L37" s="0">
         <v>3</v>
       </c>
-      <c r="K37" s="1">
+      <c r="M37" s="0">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
         <v>45030.4617592593</v>
       </c>
-      <c r="L37" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M37" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N37" s="0" t="inlineStr">
+      <c r="O37" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P37" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q37" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O37" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P37" s="0" t="inlineStr">
+      <c r="R37" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S37" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q37" s="0" t="inlineStr">
+      <c r="T37" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2815,38 +3118,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J38" s="0">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1">
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L38" s="0">
+        <v>1</v>
+      </c>
+      <c r="M38" s="0">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
         <v>45031.3787615741</v>
       </c>
-      <c r="L38" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M38" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N38" s="0" t="inlineStr">
+      <c r="O38" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P38" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q38" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O38" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P38" s="0" t="inlineStr">
+      <c r="R38" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S38" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q38" s="0" t="inlineStr">
+      <c r="T38" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2880,38 +3191,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J39" s="0">
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L39" s="0">
         <v>26</v>
       </c>
-      <c r="K39" s="1">
+      <c r="M39" s="0">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
         <v>45030.4725578704</v>
       </c>
-      <c r="L39" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M39" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N39" s="0" t="inlineStr">
+      <c r="O39" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P39" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q39" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O39" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P39" s="0" t="inlineStr">
+      <c r="R39" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S39" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q39" s="0" t="inlineStr">
+      <c r="T39" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -2945,38 +3264,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J40" s="0">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1">
+      <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L40" s="0">
+        <v>1</v>
+      </c>
+      <c r="M40" s="0">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1">
         <v>45032.4201388889</v>
       </c>
-      <c r="L40" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M40" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N40" s="0" t="inlineStr">
+      <c r="O40" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P40" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q40" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O40" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P40" s="0" t="inlineStr">
+      <c r="R40" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S40" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q40" s="0" t="inlineStr">
+      <c r="T40" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3010,38 +3337,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J41" s="0">
+      <c r="I41" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L41" s="0">
         <v>3</v>
       </c>
-      <c r="K41" s="1">
+      <c r="M41" s="0">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
         <v>45037.3737731481</v>
       </c>
-      <c r="L41" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M41" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N41" s="0" t="inlineStr">
+      <c r="O41" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P41" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q41" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O41" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P41" s="0" t="inlineStr">
+      <c r="R41" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S41" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q41" s="0" t="inlineStr">
+      <c r="T41" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3075,38 +3410,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J42" s="0">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1">
+      <c r="I42" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L42" s="0">
+        <v>1</v>
+      </c>
+      <c r="M42" s="0">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1">
         <v>45034.4450231481</v>
       </c>
-      <c r="L42" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M42" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N42" s="0" t="inlineStr">
+      <c r="O42" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P42" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q42" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O42" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P42" s="0" t="inlineStr">
+      <c r="R42" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S42" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q42" s="0" t="inlineStr">
+      <c r="T42" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3140,38 +3483,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J43" s="0">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1">
+      <c r="I43" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L43" s="0">
+        <v>1</v>
+      </c>
+      <c r="M43" s="0">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
         <v>45035.4185416667</v>
       </c>
-      <c r="L43" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M43" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N43" s="0" t="inlineStr">
+      <c r="O43" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P43" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q43" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O43" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P43" s="0" t="inlineStr">
+      <c r="R43" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S43" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q43" s="0" t="inlineStr">
+      <c r="T43" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3205,38 +3556,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J44" s="0">
-        <v>1</v>
-      </c>
-      <c r="K44" s="1">
+      <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L44" s="0">
+        <v>1</v>
+      </c>
+      <c r="M44" s="0">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
         <v>45036.4518634259</v>
       </c>
-      <c r="L44" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M44" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N44" s="0" t="inlineStr">
+      <c r="O44" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P44" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q44" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O44" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P44" s="0" t="inlineStr">
+      <c r="R44" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S44" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q44" s="0" t="inlineStr">
+      <c r="T44" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3270,38 +3629,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J45" s="0">
+      <c r="I45" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L45" s="0">
         <v>12</v>
       </c>
-      <c r="K45" s="1">
+      <c r="M45" s="0">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
         <v>45037.3706018519</v>
       </c>
-      <c r="L45" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M45" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N45" s="0" t="inlineStr">
+      <c r="O45" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P45" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q45" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O45" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P45" s="0" t="inlineStr">
+      <c r="R45" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S45" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q45" s="0" t="inlineStr">
+      <c r="T45" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3335,38 +3702,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J46" s="0">
-        <v>1</v>
-      </c>
-      <c r="K46" s="1">
+      <c r="I46" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L46" s="0">
+        <v>1</v>
+      </c>
+      <c r="M46" s="0">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
         <v>45038.3972453704</v>
       </c>
-      <c r="L46" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M46" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N46" s="0" t="inlineStr">
+      <c r="O46" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P46" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q46" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O46" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P46" s="0" t="inlineStr">
+      <c r="R46" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S46" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q46" s="0" t="inlineStr">
+      <c r="T46" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3400,38 +3775,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J47" s="0">
+      <c r="I47" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L47" s="0">
         <v>2</v>
       </c>
-      <c r="K47" s="1">
+      <c r="M47" s="0">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
         <v>45039.411400463</v>
       </c>
-      <c r="L47" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M47" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N47" s="0" t="inlineStr">
+      <c r="O47" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P47" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q47" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O47" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P47" s="0" t="inlineStr">
+      <c r="R47" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S47" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q47" s="0" t="inlineStr">
+      <c r="T47" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3465,38 +3848,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J48" s="0">
+      <c r="I48" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L48" s="0">
         <v>2</v>
       </c>
-      <c r="K48" s="1">
+      <c r="M48" s="0">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
         <v>45044.406712963</v>
       </c>
-      <c r="L48" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M48" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N48" s="0" t="inlineStr">
+      <c r="O48" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P48" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q48" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O48" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P48" s="0" t="inlineStr">
+      <c r="R48" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S48" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q48" s="0" t="inlineStr">
+      <c r="T48" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3530,38 +3921,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J49" s="0">
-        <v>1</v>
-      </c>
-      <c r="K49" s="1">
+      <c r="I49" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L49" s="0">
+        <v>1</v>
+      </c>
+      <c r="M49" s="0">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1">
         <v>45041.3672685185</v>
       </c>
-      <c r="L49" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M49" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N49" s="0" t="inlineStr">
+      <c r="O49" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P49" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q49" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O49" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P49" s="0" t="inlineStr">
+      <c r="R49" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S49" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q49" s="0" t="inlineStr">
+      <c r="T49" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3595,38 +3994,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J50" s="0">
+      <c r="I50" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L50" s="0">
         <v>5</v>
       </c>
-      <c r="K50" s="1">
+      <c r="M50" s="0">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
         <v>45044.4209490741</v>
       </c>
-      <c r="L50" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M50" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N50" s="0" t="inlineStr">
+      <c r="O50" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P50" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q50" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O50" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P50" s="0" t="inlineStr">
+      <c r="R50" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S50" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q50" s="0" t="inlineStr">
+      <c r="T50" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3660,38 +4067,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J51" s="0">
-        <v>1</v>
-      </c>
-      <c r="K51" s="1">
+      <c r="I51" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L51" s="0">
+        <v>1</v>
+      </c>
+      <c r="M51" s="0">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1">
         <v>45046.4191319444</v>
       </c>
-      <c r="L51" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M51" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N51" s="0" t="inlineStr">
+      <c r="O51" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P51" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q51" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O51" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P51" s="0" t="inlineStr">
+      <c r="R51" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S51" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q51" s="0" t="inlineStr">
+      <c r="T51" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3725,38 +4140,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J52" s="0">
+      <c r="I52" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L52" s="0">
         <v>3</v>
       </c>
-      <c r="K52" s="1">
+      <c r="M52" s="0">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1">
         <v>45044.3961342593</v>
       </c>
-      <c r="L52" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M52" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N52" s="0" t="inlineStr">
+      <c r="O52" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P52" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q52" s="0" t="inlineStr">
         <is>
           <t>Hallwood 3</t>
         </is>
       </c>
-      <c r="O52" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P52" s="0" t="inlineStr">
+      <c r="R52" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S52" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q52" s="0" t="inlineStr">
+      <c r="T52" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3790,41 +4213,49 @@
           <t>Silvery parr</t>
         </is>
       </c>
-      <c r="I53" s="0">
+      <c r="I53" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J53" s="0">
         <v>74</v>
       </c>
-      <c r="J53" s="0">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1">
+      <c r="L53" s="0">
+        <v>1</v>
+      </c>
+      <c r="M53" s="0">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1">
         <v>45049.5266203704</v>
       </c>
-      <c r="L53" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M53" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N53" s="0" t="inlineStr">
+      <c r="O53" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P53" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q53" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O53" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P53" s="0" t="inlineStr">
+      <c r="R53" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S53" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q53" s="0" t="inlineStr">
+      <c r="T53" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3858,38 +4289,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J54" s="0">
+      <c r="I54" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L54" s="0">
         <v>3</v>
       </c>
-      <c r="K54" s="1">
+      <c r="M54" s="0">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1">
         <v>45051.3961921296</v>
       </c>
-      <c r="L54" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M54" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N54" s="0" t="inlineStr">
+      <c r="O54" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P54" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q54" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O54" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P54" s="0" t="inlineStr">
+      <c r="R54" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S54" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q54" s="0" t="inlineStr">
+      <c r="T54" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3923,38 +4362,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J55" s="0">
-        <v>1</v>
-      </c>
-      <c r="K55" s="1">
+      <c r="I55" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L55" s="0">
+        <v>1</v>
+      </c>
+      <c r="M55" s="0">
+        <v>1</v>
+      </c>
+      <c r="N55" s="1">
         <v>45058.3701041667</v>
       </c>
-      <c r="L55" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M55" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N55" s="0" t="inlineStr">
+      <c r="O55" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P55" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q55" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O55" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P55" s="0" t="inlineStr">
+      <c r="R55" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S55" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q55" s="0" t="inlineStr">
+      <c r="T55" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -3988,38 +4435,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J56" s="0">
-        <v>1</v>
-      </c>
-      <c r="K56" s="1">
+      <c r="I56" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L56" s="0">
+        <v>1</v>
+      </c>
+      <c r="M56" s="0">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1">
         <v>44994.3961111111</v>
       </c>
-      <c r="L56" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M56" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N56" s="0" t="inlineStr">
+      <c r="O56" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P56" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q56" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O56" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P56" s="0" t="inlineStr">
+      <c r="R56" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S56" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q56" s="0" t="inlineStr">
+      <c r="T56" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -4053,38 +4508,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J57" s="0">
-        <v>1</v>
-      </c>
-      <c r="K57" s="1">
+      <c r="I57" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L57" s="0">
+        <v>1</v>
+      </c>
+      <c r="M57" s="0">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1">
         <v>44981.4520717593</v>
       </c>
-      <c r="L57" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M57" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N57" s="0" t="inlineStr">
+      <c r="O57" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P57" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q57" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O57" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P57" s="0" t="inlineStr">
+      <c r="R57" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S57" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="Q57" s="0" t="inlineStr">
+      <c r="T57" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -4118,38 +4581,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J58" s="0">
-        <v>1</v>
-      </c>
-      <c r="K58" s="1">
+      <c r="I58" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L58" s="0">
+        <v>1</v>
+      </c>
+      <c r="M58" s="0">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
         <v>45037.3846180556</v>
       </c>
-      <c r="L58" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M58" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N58" s="0" t="inlineStr">
+      <c r="O58" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P58" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q58" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O58" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P58" s="0" t="inlineStr">
+      <c r="R58" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S58" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q58" s="0" t="inlineStr">
+      <c r="T58" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -4183,38 +4654,46 @@
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="J59" s="0">
-        <v>1</v>
-      </c>
-      <c r="K59" s="1">
+      <c r="I59" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L59" s="0">
+        <v>1</v>
+      </c>
+      <c r="M59" s="0">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1">
         <v>45058.3701041667</v>
       </c>
-      <c r="L59" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M59" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N59" s="0" t="inlineStr">
+      <c r="O59" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P59" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q59" s="0" t="inlineStr">
         <is>
           <t>Hallwood 1 RR</t>
         </is>
       </c>
-      <c r="O59" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P59" s="0" t="inlineStr">
+      <c r="R59" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S59" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q59" s="0" t="inlineStr">
+      <c r="T59" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
@@ -4248,41 +4727,49 @@
           <t>Parr</t>
         </is>
       </c>
-      <c r="I60" s="0">
+      <c r="I60" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J60" s="0">
         <v>38</v>
       </c>
-      <c r="J60" s="0">
-        <v>1</v>
-      </c>
-      <c r="K60" s="1">
+      <c r="L60" s="0">
+        <v>1</v>
+      </c>
+      <c r="M60" s="0">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1">
         <v>45051.4293865741</v>
       </c>
-      <c r="L60" s="0" t="inlineStr">
-        <is>
-          <t>Continue trapping</t>
-        </is>
-      </c>
-      <c r="M60" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood</t>
-        </is>
-      </c>
-      <c r="N60" s="0" t="inlineStr">
+      <c r="O60" s="0" t="inlineStr">
+        <is>
+          <t>Continue trapping</t>
+        </is>
+      </c>
+      <c r="P60" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood</t>
+        </is>
+      </c>
+      <c r="Q60" s="0" t="inlineStr">
         <is>
           <t>Hallwood 2 RL</t>
         </is>
       </c>
-      <c r="O60" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="P60" s="0" t="inlineStr">
+      <c r="R60" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="S60" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="Q60" s="0" t="inlineStr">
+      <c r="T60" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
